--- a/CATSMatlabTools/templates/Bench Test Template.xlsx
+++ b/CATSMatlabTools/templates/Bench Test Template.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160BF233-8936-4D2B-A396-B7C7BEF7C4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="24" yWindow="0" windowWidth="12792" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>start</t>
   </si>
@@ -126,12 +127,15 @@
   </si>
   <si>
     <t>The times autopopulate for convenience, but can be edited to match the reality of what you actually test</t>
+  </si>
+  <si>
+    <t>(Needs to be a number only, no letters)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="h:mm:ss;@"/>
     <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
@@ -239,7 +243,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB67AE3-5988-4389-9EEA-43E022D6B3D2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB67AE3-5988-4389-9EEA-43E022D6B3D2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -536,22 +540,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.3125" customWidth="1"/>
+    <col min="2" max="2" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.41796875" customWidth="1"/>
+    <col min="8" max="8" width="9.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -562,14 +566,16 @@
       <c r="E1" s="4"/>
       <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C2" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -578,7 +584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -587,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -596,13 +602,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -610,7 +616,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -618,22 +624,22 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -650,13 +656,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>1</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7">
-        <f>B14+30/24/60/60</f>
+        <f t="shared" ref="C14:C31" si="0">B14+30/24/60/60</f>
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="D14" s="8">
@@ -666,7 +672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>1</v>
       </c>
@@ -675,7 +681,7 @@
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="C15" s="3">
-        <f>B15+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="D15" s="4">
@@ -685,7 +691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>1</v>
       </c>
@@ -694,7 +700,7 @@
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="C16" s="3">
-        <f>B16+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666664E-3</v>
       </c>
       <c r="D16" s="4">
@@ -704,13 +710,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7">
-        <f>B17+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="D17" s="8">
@@ -729,7 +735,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>2</v>
       </c>
@@ -738,7 +744,7 @@
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="C18" s="3">
-        <f>B18+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="D18" s="4">
@@ -752,7 +758,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>2</v>
       </c>
@@ -761,7 +767,7 @@
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="C19" s="3">
-        <f>B19+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666664E-3</v>
       </c>
       <c r="D19" s="4">
@@ -773,13 +779,13 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7">
-        <f>B20+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="D20" s="8">
@@ -789,7 +795,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>3</v>
       </c>
@@ -798,7 +804,7 @@
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="C21" s="3">
-        <f>B21+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="D21" s="4">
@@ -808,7 +814,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>3</v>
       </c>
@@ -817,7 +823,7 @@
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="C22" s="3">
-        <f>B22+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666664E-3</v>
       </c>
       <c r="D22" s="4">
@@ -827,13 +833,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7">
-        <f>B23+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="D23" s="8">
@@ -843,7 +849,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>4</v>
       </c>
@@ -852,7 +858,7 @@
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="C24" s="3">
-        <f>B24+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="D24" s="4">
@@ -862,7 +868,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>4</v>
       </c>
@@ -871,7 +877,7 @@
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="C25" s="3">
-        <f>B25+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666664E-3</v>
       </c>
       <c r="D25" s="4">
@@ -881,20 +887,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>5</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7">
-        <f>B26+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="D26" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>5</v>
       </c>
@@ -903,14 +909,14 @@
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="C27" s="3">
-        <f>B27+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="D27" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>5</v>
       </c>
@@ -919,27 +925,27 @@
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="C28" s="3">
-        <f>B28+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666664E-3</v>
       </c>
       <c r="D28" s="4">
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>6</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7">
-        <f>B29+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="D29" s="8">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>6</v>
       </c>
@@ -948,14 +954,14 @@
         <v>3.4722222222222218E-4</v>
       </c>
       <c r="C30" s="3">
-        <f>B30+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="D30" s="4">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>6</v>
       </c>
@@ -964,7 +970,7 @@
         <v>6.9444444444444436E-4</v>
       </c>
       <c r="C31" s="3">
-        <f>B31+30/24/60/60</f>
+        <f t="shared" si="0"/>
         <v>1.0416666666666664E-3</v>
       </c>
       <c r="D31" s="4">

--- a/CATSMatlabTools/templates/Bench Test Template.xlsx
+++ b/CATSMatlabTools/templates/Bench Test Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160BF233-8936-4D2B-A396-B7C7BEF7C4B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CDEE5A-46A8-41BC-B605-1D4FEEEE7B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="0" windowWidth="12792" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3247" yWindow="3247" windowWidth="21601" windowHeight="11423" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="6" r:id="rId1"/>
@@ -129,7 +129,7 @@
     <t>The times autopopulate for convenience, but can be edited to match the reality of what you actually test</t>
   </si>
   <si>
-    <t>(Needs to be a number only, no letters)</t>
+    <t>(Can be two digit number or one letter plus one or two digit number)</t>
   </si>
 </sst>
 </file>
@@ -189,13 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,47 +543,47 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.3125" customWidth="1"/>
-    <col min="2" max="2" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.41796875" customWidth="1"/>
-    <col min="8" max="8" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="9"/>
       <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H1" s="10"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="5" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -593,7 +592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -602,13 +601,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -616,7 +615,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -624,22 +623,22 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -656,23 +655,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6">
         <f t="shared" ref="C14:C31" si="0">B14+30/24/60/60</f>
         <v>3.4722222222222218E-4</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>0</v>
       </c>
       <c r="G14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>1</v>
       </c>
@@ -691,7 +690,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
@@ -710,16 +709,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D17" s="7">
         <v>0</v>
       </c>
       <c r="G17" t="s">
@@ -735,7 +734,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>2</v>
       </c>
@@ -758,7 +757,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>2</v>
       </c>
@@ -779,23 +778,23 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>3</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="D20" s="8">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D20" s="7">
         <v>0</v>
       </c>
       <c r="K20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>3</v>
       </c>
@@ -814,7 +813,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>3</v>
       </c>
@@ -833,23 +832,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>4</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="D23" s="8">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D23" s="7">
         <v>0</v>
       </c>
       <c r="K23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>4</v>
       </c>
@@ -868,7 +867,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>4</v>
       </c>
@@ -887,20 +886,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>5</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="D26" s="8">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D26" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>5</v>
       </c>
@@ -916,7 +915,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>5</v>
       </c>
@@ -932,20 +931,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>6</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222218E-4</v>
-      </c>
-      <c r="D29" s="8">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4722222222222218E-4</v>
+      </c>
+      <c r="D29" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>6</v>
       </c>
@@ -961,7 +960,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>6</v>
       </c>
